--- a/code_slm_selection.xlsx
+++ b/code_slm_selection.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="model_selection" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="selected_models" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">model_selection!$A$1:$J$40</definedName>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -390,11 +391,77 @@
   <si>
     <t>After december 2023</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>architecture?</t>
+  </si>
+  <si>
+    <t>base model?</t>
+  </si>
+  <si>
+    <t>paper?</t>
+  </si>
+  <si>
+    <t>codeparrot-small</t>
+  </si>
+  <si>
+    <t>110 [M]</t>
+  </si>
+  <si>
+    <t>HuggingFace</t>
+  </si>
+  <si>
+    <t>pythia (410 M)</t>
+  </si>
+  <si>
+    <t>410 [M]</t>
+  </si>
+  <si>
+    <t>EleutherAI</t>
+  </si>
+  <si>
+    <t>tinyllama</t>
+  </si>
+  <si>
+    <t>1.1 [B]</t>
+  </si>
+  <si>
+    <t>TinyLlama (StatNLP Research Group)</t>
+  </si>
+  <si>
+    <t>pythia (1.4 B)</t>
+  </si>
+  <si>
+    <t>1.4 [B]</t>
+  </si>
+  <si>
+    <t>phi2</t>
+  </si>
+  <si>
+    <t>2.7 [B]</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmmm, yyyy"/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="10.0"/>
@@ -506,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -581,6 +648,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,6 +661,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -800,6 +874,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="29.25"/>
     <col customWidth="1" min="4" max="4" width="9.0"/>
+    <col customWidth="1" min="9" max="9" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2068,4 +2143,133 @@
   </hyperlinks>
   <drawing r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="25">
+        <v>44501.0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="25">
+        <v>45017.0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="25">
+        <v>45292.0</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45017.0</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45261.0</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>